--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1996,37 +1996,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1397633258</t>
+          <t>431136689</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>고구려</t>
+          <t>라무진 선유도역점</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>126.894353908895</t>
+          <t>126.894752486412</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>37.5369396190386</t>
+          <t>37.5367219329118</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>중화요리</t>
+          <t>육류,고기</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로49길 29-1</t>
+          <t>서울 영등포구 선유로49길 25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1397633258</t>
+          <t>http://place.map.kakao.com/431136689</t>
         </is>
       </c>
     </row>
@@ -2036,37 +2036,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>431136689</t>
+          <t>1397633258</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>라무진 선유도역점</t>
+          <t>고구려</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>126.894752486412</t>
+          <t>126.894353908895</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>37.5367219329118</t>
+          <t>37.5369396190386</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>육류,고기</t>
+          <t>중화요리</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로49길 25</t>
+          <t>서울 영등포구 선유로49길 29-1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/431136689</t>
+          <t>http://place.map.kakao.com/1397633258</t>
         </is>
       </c>
     </row>
@@ -7116,37 +7116,37 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>692496973</t>
+          <t>1321139288</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>보울풀</t>
+          <t>미락카츠 본점</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>126.897165894862</t>
+          <t>126.897955196998</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>37.5292871993668</t>
+          <t>37.5295599863783</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>샐러드</t>
+          <t>돈까스,우동</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>서울 영등포구 국회대로29길 14</t>
+          <t>서울 영등포구 당산로37길 4</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/692496973</t>
+          <t>http://place.map.kakao.com/1321139288</t>
         </is>
       </c>
     </row>
@@ -7156,37 +7156,37 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1321139288</t>
+          <t>692496973</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>미락카츠 본점</t>
+          <t>보울풀</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>126.897955196998</t>
+          <t>126.897165894862</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>37.5295599863783</t>
+          <t>37.5292871993668</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>돈까스,우동</t>
+          <t>샐러드</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로37길 4</t>
+          <t>서울 영등포구 국회대로29길 14</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1321139288</t>
+          <t>http://place.map.kakao.com/692496973</t>
         </is>
       </c>
     </row>
@@ -8196,37 +8196,37 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>12089464</t>
+          <t>19011228</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>빈대떡먹는날</t>
+          <t>박리분식</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>126.897356164492</t>
+          <t>126.8972317809471</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>37.5357421344528</t>
+          <t>37.53568796625935</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>분식</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로 257</t>
+          <t>서울 영등포구 선유로49길 2</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/12089464</t>
+          <t>http://place.map.kakao.com/19011228</t>
         </is>
       </c>
     </row>
@@ -8236,37 +8236,37 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>19011228</t>
+          <t>12089464</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>박리분식</t>
+          <t>빈대떡먹는날</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>126.8972317809471</t>
+          <t>126.897356164492</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>37.53568796625935</t>
+          <t>37.5357421344528</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>분식</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로49길 2</t>
+          <t>서울 영등포구 선유로 257</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/19011228</t>
+          <t>http://place.map.kakao.com/12089464</t>
         </is>
       </c>
     </row>
@@ -8476,37 +8476,37 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>15571790</t>
+          <t>12056541</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>진도홍어</t>
+          <t>누룽지삼계탕</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>126.897495268501</t>
+          <t>126.897322917933</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>37.536614423487</t>
+          <t>37.5368845737994</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>해물,생선</t>
+          <t>삼계탕</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로51길 5</t>
+          <t>서울 영등포구 선유로51길 8</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/15571790</t>
+          <t>http://place.map.kakao.com/12056541</t>
         </is>
       </c>
     </row>
@@ -8516,37 +8516,37 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>12056541</t>
+          <t>15571790</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>누룽지삼계탕</t>
+          <t>진도홍어</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>126.897322917933</t>
+          <t>126.897495268501</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>37.5368845737994</t>
+          <t>37.536614423487</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>삼계탕</t>
+          <t>해물,생선</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로51길 8</t>
+          <t>서울 영등포구 선유로51길 5</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/12056541</t>
+          <t>http://place.map.kakao.com/15571790</t>
         </is>
       </c>
     </row>
@@ -8556,37 +8556,37 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10570005</t>
+          <t>1100976257</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>해독천재 양푼이동태탕</t>
+          <t>베이커리옥토버</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>126.897332582227</t>
+          <t>126.897174684758</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>37.536437686131</t>
+          <t>37.5360699406697</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>해물,생선</t>
+          <t>제과,베이커리</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 90</t>
+          <t>서울 영등포구 양평로 89</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/10570005</t>
+          <t>http://place.map.kakao.com/1100976257</t>
         </is>
       </c>
     </row>
@@ -8596,37 +8596,37 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1100976257</t>
+          <t>10570005</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>베이커리옥토버</t>
+          <t>해독천재 양푼이동태탕</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>126.897174684758</t>
+          <t>126.897332582227</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>37.5360699406697</t>
+          <t>37.536437686131</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>제과,베이커리</t>
+          <t>해물,생선</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 89</t>
+          <t>서울 영등포구 양평로 90</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1100976257</t>
+          <t>http://place.map.kakao.com/10570005</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>27508498</t>
+          <t>855992727</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>북촌순두부&amp;보쌈</t>
+          <t>큰맘할매순대국 당산SK점</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>족발,보쌈</t>
+          <t>큰맘할매순대국</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/27508498</t>
+          <t>http://place.map.kakao.com/855992727</t>
         </is>
       </c>
     </row>
@@ -9396,12 +9396,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>855992727</t>
+          <t>27508498</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>큰맘할매순대국 당산SK점</t>
+          <t>북촌순두부&amp;보쌈</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>큰맘할매순대국</t>
+          <t>족발,보쌈</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/855992727</t>
+          <t>http://place.map.kakao.com/27508498</t>
         </is>
       </c>
     </row>
@@ -11516,37 +11516,37 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>1077611870</t>
+          <t>950688197</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>이차돌 당산역점</t>
+          <t>양화포차</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>126.899488322996</t>
+          <t>126.899786875303</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>37.535343924272</t>
+          <t>37.5354522980392</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>이차돌</t>
+          <t>실내포장마차</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 68</t>
+          <t>서울 영등포구 선유로52길 14-1</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1077611870</t>
+          <t>http://place.map.kakao.com/950688197</t>
         </is>
       </c>
     </row>
@@ -11556,37 +11556,37 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>950688197</t>
+          <t>1077611870</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>양화포차</t>
+          <t>이차돌 당산역점</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>126.899786875303</t>
+          <t>126.899488322996</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>37.5354522980392</t>
+          <t>37.535343924272</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>실내포장마차</t>
+          <t>이차돌</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로52길 14-1</t>
+          <t>서울 영등포구 양평로 68</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/950688197</t>
+          <t>http://place.map.kakao.com/1077611870</t>
         </is>
       </c>
     </row>
@@ -11676,37 +11676,37 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>454490562</t>
+          <t>134703204</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>노가리랑맥주한박스</t>
+          <t>연하식당</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>126.899764386599</t>
+          <t>126.899751743093</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>37.5353477629125</t>
+          <t>37.5354955162376</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>호프,요리주점</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 64-5</t>
+          <t>서울 영등포구 선유로52길 14-1</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/454490562</t>
+          <t>http://place.map.kakao.com/134703204</t>
         </is>
       </c>
     </row>
@@ -11716,37 +11716,37 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>311521975</t>
+          <t>454490562</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>술선생</t>
+          <t>노가리랑맥주한박스</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>126.899230774467</t>
+          <t>126.899764386599</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>37.5350337606566</t>
+          <t>37.5353477629125</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>실내포장마차</t>
+          <t>호프,요리주점</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 67</t>
+          <t>서울 영등포구 양평로 64-5</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/311521975</t>
+          <t>http://place.map.kakao.com/454490562</t>
         </is>
       </c>
     </row>
@@ -11756,37 +11756,37 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>134703204</t>
+          <t>311521975</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>연하식당</t>
+          <t>술선생</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>126.899751743093</t>
+          <t>126.899230774467</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>37.5354955162376</t>
+          <t>37.5350337606566</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>실내포장마차</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>서울 영등포구 선유로52길 14-1</t>
+          <t>서울 영등포구 양평로 67</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/134703204</t>
+          <t>http://place.map.kakao.com/311521975</t>
         </is>
       </c>
     </row>
@@ -14876,27 +14876,27 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>24617092</t>
+          <t>1800405633</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>하남돼지집 당산역점</t>
+          <t>달달데이 당산점</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>126.9019983821653</t>
+          <t>126.901987162282</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>37.534924365752495</t>
+          <t>37.5348522764053</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>하남돼지집</t>
+          <t>호프,요리주점</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/24617092</t>
+          <t>http://place.map.kakao.com/1800405633</t>
         </is>
       </c>
     </row>
@@ -14916,27 +14916,27 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>1800405633</t>
+          <t>24617092</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>달달데이 당산점</t>
+          <t>하남돼지집 당산역점</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>126.901987162282</t>
+          <t>126.9019983821653</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>37.5348522764053</t>
+          <t>37.534924365752495</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>호프,요리주점</t>
+          <t>하남돼지집</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1800405633</t>
+          <t>http://place.map.kakao.com/24617092</t>
         </is>
       </c>
     </row>
@@ -16156,22 +16156,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>19039317</t>
+          <t>15770013</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>고구마명가 당산역점</t>
+          <t>글로리아 제과점</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>126.902662823957</t>
+          <t>126.902911948002</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>37.5338256946277</t>
+          <t>37.5336601155826</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -16181,12 +16181,12 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 36</t>
+          <t>서울 영등포구 양평로 32</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/19039317</t>
+          <t>http://place.map.kakao.com/15770013</t>
         </is>
       </c>
     </row>
@@ -16196,22 +16196,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>15770013</t>
+          <t>19039317</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>글로리아 제과점</t>
+          <t>고구마명가 당산역점</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>126.902911948002</t>
+          <t>126.902662823957</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>37.5336601155826</t>
+          <t>37.5338256946277</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -16221,12 +16221,12 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>서울 영등포구 양평로 32</t>
+          <t>서울 영등포구 양평로 36</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/15770013</t>
+          <t>http://place.map.kakao.com/19039317</t>
         </is>
       </c>
     </row>
@@ -16516,37 +16516,37 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>152549550</t>
+          <t>24040604</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>당산김밥떡볶이</t>
+          <t>당산쭈꾸미 당산1호점</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>126.90256634038096</t>
+          <t>126.902702917779</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>37.534067083223896</t>
+          <t>37.534315871981</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>분식</t>
+          <t>해물,생선</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로48길 2</t>
+          <t>서울 영등포구 당산로 234</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/152549550</t>
+          <t>http://place.map.kakao.com/24040604</t>
         </is>
       </c>
     </row>
@@ -16556,37 +16556,37 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>24040604</t>
+          <t>152549550</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>당산쭈꾸미 당산1호점</t>
+          <t>당산김밥떡볶이</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>126.902702917779</t>
+          <t>126.90256634038096</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>37.534315871981</t>
+          <t>37.534067083223896</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>해물,생선</t>
+          <t>분식</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로 234</t>
+          <t>서울 영등포구 당산로48길 2</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/24040604</t>
+          <t>http://place.map.kakao.com/152549550</t>
         </is>
       </c>
     </row>
@@ -16596,37 +16596,37 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>25412829</t>
+          <t>1894308346</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>송가네옛날빈대떡</t>
+          <t>송가네족발보쌈</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>126.902549176979</t>
+          <t>126.902775487256</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>37.5342148331548</t>
+          <t>37.5341933956729</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>족발,보쌈</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로 232</t>
+          <t>서울 영등포구 당산로48길 4</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/25412829</t>
+          <t>http://place.map.kakao.com/1894308346</t>
         </is>
       </c>
     </row>
@@ -16636,37 +16636,37 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>1894308346</t>
+          <t>25412829</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>송가네족발보쌈</t>
+          <t>송가네옛날빈대떡</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>126.902775487256</t>
+          <t>126.902549176979</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>37.5341933956729</t>
+          <t>37.5342148331548</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>족발,보쌈</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로48길 4</t>
+          <t>서울 영등포구 당산로 232</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/1894308346</t>
+          <t>http://place.map.kakao.com/25412829</t>
         </is>
       </c>
     </row>
@@ -17516,37 +17516,37 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>202858486</t>
+          <t>18689522</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>당산회관</t>
+          <t>막걸리촌</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>126.902027228641</t>
+          <t>126.902108116742</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>37.5353604738851</t>
+          <t>37.5358002291304</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>곱창,막창</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로47길 13</t>
+          <t>서울 영등포구 당산로49길 8</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/202858486</t>
+          <t>http://place.map.kakao.com/18689522</t>
         </is>
       </c>
     </row>
@@ -17556,37 +17556,37 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>18689522</t>
+          <t>202858486</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>막걸리촌</t>
+          <t>당산회관</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>126.902108116742</t>
+          <t>126.902027228641</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>37.5358002291304</t>
+          <t>37.5353604738851</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>곱창,막창</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>서울 영등포구 당산로49길 8</t>
+          <t>서울 영등포구 당산로47길 13</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/18689522</t>
+          <t>http://place.map.kakao.com/202858486</t>
         </is>
       </c>
     </row>
@@ -17716,27 +17716,27 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>912457886</t>
+          <t>833805526</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>김영희강남동태찜 신당산점</t>
+          <t>접시고기 당산점</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>126.902031754354</t>
+          <t>126.90203174964</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>37.5353604776397</t>
+          <t>37.5353640816372</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>김영희강남동태찜</t>
+          <t>육류,고기</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/912457886</t>
+          <t>http://place.map.kakao.com/833805526</t>
         </is>
       </c>
     </row>
@@ -17756,27 +17756,27 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>833805526</t>
+          <t>912457886</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>접시고기 당산점</t>
+          <t>김영희강남동태찜 신당산점</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>126.90203174964</t>
+          <t>126.902031754354</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>37.5353640816372</t>
+          <t>37.5353604776397</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>육류,고기</t>
+          <t>김영희강남동태찜</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>http://place.map.kakao.com/833805526</t>
+          <t>http://place.map.kakao.com/912457886</t>
         </is>
       </c>
     </row>
